--- a/深度学习相关工作安排计划表.xlsx
+++ b/深度学习相关工作安排计划表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\叶天鹏\Documents\Desktop\深度学习学习小组\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\509-DeepLearning-Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>叶天鹏</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>叶天鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会讨论今后讨论会展开的时间、地点、方式等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定讨论会开展的形式，时间、地点等内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +461,7 @@
   <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -534,16 +546,28 @@
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43268</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43268</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
